--- a/data-clean/clean_2.xlsx
+++ b/data-clean/clean_2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5440" yWindow="1800" windowWidth="28160" windowHeight="15420" tabRatio="500"/>
+    <workbookView xWindow="10300" yWindow="5480" windowWidth="28160" windowHeight="15420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
   <si>
     <t>直接删除，完全不相关</t>
     <rPh sb="0" eb="1">
@@ -135,9 +135,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weapdetail</t>
-  </si>
-  <si>
     <t>空格属于unknown</t>
     <rPh sb="0" eb="1">
       <t>kong ge</t>
@@ -313,6 +310,173 @@
     <rPh sb="2" eb="3">
       <t>fu xiang guan</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>approxdate</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ocation</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targtype1_txt</t>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ltanative_txt</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attacktype1_txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attacktype2_txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>attacktype3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_txt</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targsubtype1_txt</t>
+  </si>
+  <si>
+    <t>natlty1_txt</t>
+  </si>
+  <si>
+    <t>targtype2_txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>targsubtype2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_txt</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>natlty2_txt</t>
+  </si>
+  <si>
+    <t>targtype3_txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targsubtype3_txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>natlty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_txt</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>country_txt</t>
+  </si>
+  <si>
+    <t>region_txt</t>
+  </si>
+  <si>
+    <t>city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targtype1</t>
+  </si>
+  <si>
+    <t>claimmode_txt</t>
+  </si>
+  <si>
+    <t>claimmode2_txt</t>
+  </si>
+  <si>
+    <t>weapdetail要转换编码</t>
+    <rPh sb="10" eb="11">
+      <t>yao zhuan huan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>bian ma</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>country</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -320,7 +484,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -357,6 +521,29 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -384,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -395,10 +582,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -676,15 +866,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:AH39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:N17"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -700,8 +890,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="F1" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -744,131 +937,258 @@
       <c r="N2" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V2" t="s">
+        <v>56</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="2" t="s">
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="F11" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" t="s">
         <v>37</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>38</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A15" s="5"/>
+      <c r="B15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" t="s">
+      <c r="C15" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="2" t="s">
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" t="s">
+      <c r="C16" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" t="s">
-        <v>47</v>
-      </c>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H18" s="7"/>
+      <c r="L18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="7"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="O19" s="7"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q22" s="8"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q23" s="7"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q24" s="7"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q25" s="7"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q27" s="8"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q30" s="8"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q31" s="7"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q32" s="8"/>
+    </row>
+    <row r="33" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q33" s="7"/>
+    </row>
+    <row r="35" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q35" s="8"/>
+    </row>
+    <row r="36" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q36" s="8"/>
+    </row>
+    <row r="38" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q38" s="7"/>
+    </row>
+    <row r="39" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q39" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
